--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92284.05198946565</v>
+        <v>142118.7162655177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8429532.748261675</v>
+        <v>8442159.011798598</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>253.484320450469</v>
       </c>
       <c r="E2" t="n">
-        <v>315.7090974304646</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>144.5739893763809</v>
       </c>
       <c r="H4" t="n">
-        <v>38.43478567502473</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,16 +865,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>94.34310322716819</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>184.9203686683008</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>57.23237335401402</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>246.1774126064493</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>191.1386772339643</v>
+        <v>59.4124420970251</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>236.5068966114178</v>
+        <v>18.22772027659568</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.713962706846</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602648</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.4713060635447</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>41.48733421943305</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>372.3046183802618</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>212.600696885479</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170493</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454387</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>32.67077719907198</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.6990987647611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>240.9739924675013</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888141</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>122.4914619056499</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907111</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,10 +3190,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>54.18430635300789</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3326,7 +3326,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3910,7 +3910,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170453</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>144.4937753855483</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4141,13 +4141,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>164.913557982346</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>1487.383877783759</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497385</v>
+        <v>1453.281809007586</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6687723645871</v>
+        <v>1197.237040875799</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>1167.502700074499</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>739.6352704837066</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018669</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018669</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.10728455018669</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.809930858747</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.809930858747</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.809930858747</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.809930858747</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756277</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509334</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693171</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.64512656621</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1892.422823883227</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.805873817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1528.990823268491</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1513.888763888205</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1509.643044228263</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018669</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064429</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940201</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.9883451770664</v>
+        <v>931.901448853067</v>
       </c>
       <c r="C4" t="n">
-        <v>161.4266336602913</v>
+        <v>759.3397373362919</v>
       </c>
       <c r="D4" t="n">
-        <v>161.4266336602913</v>
+        <v>593.4617445378146</v>
       </c>
       <c r="E4" t="n">
-        <v>161.4266336602913</v>
+        <v>423.7037407885519</v>
       </c>
       <c r="F4" t="n">
-        <v>161.4266336602913</v>
+        <v>423.7037407885519</v>
       </c>
       <c r="G4" t="n">
-        <v>161.4266336602913</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018669</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509334</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509334</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214706</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2433.946406214706</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2433.946406214706</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>2155.513405467811</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1868.557897338242</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>1596.531492924533</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>1351.139738257946</v>
       </c>
       <c r="Y4" t="n">
-        <v>525.8069638960535</v>
+        <v>1123.720067572054</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1018.798599434575</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>582.8888146090198</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>149.114069767315</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881362</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>366.7696217991695</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851933</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.323894716565</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D8" t="n">
-        <v>898.4141098910097</v>
+        <v>1131.747320006845</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493049</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105242</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105242</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105242</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105242</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509618</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626538</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1433.741318336665</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956379</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296437</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.170146845069</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>854.6084353282944</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>688.7304425298171</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805543</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423105</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681381</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851263</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264737</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255674</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683212</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908993</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631003</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507455</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1218.988765564057</v>
+        <v>2183.509622238479</v>
       </c>
       <c r="V10" t="n">
-        <v>1218.988765564057</v>
+        <v>1896.55411410891</v>
       </c>
       <c r="W10" t="n">
-        <v>1218.988765564057</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X10" t="n">
-        <v>1218.988765564057</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.988765564057</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.724095295529</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C11" t="n">
-        <v>2034.581622478952</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.671837653397</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E11" t="n">
-        <v>1164.897092811692</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F11" t="n">
-        <v>737.0296632208996</v>
+        <v>516.9624360939397</v>
       </c>
       <c r="G11" t="n">
-        <v>335.6318318441635</v>
+        <v>115.5646047172031</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X11" t="n">
-        <v>3307.309789480783</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.023665780437</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580466</v>
+        <v>1078.256218512436</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>905.694506995661</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>739.8165141971837</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>570.058510447921</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>393.3514564096772</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>227.7601814355048</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243222</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162926</v>
+        <v>1497.494507917315</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1270.074837231423</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>498.7803825855955</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1573.840348838455</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049006</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485453</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.798834055759</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1052.109260520272</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>879.5475490034969</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>713.6695562050197</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>543.9115524557569</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>367.2044984175132</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.84397037279</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1716.739304591738</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1243.927879239259</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.308741984729</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168153</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342597</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500892</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5537,28 +5537,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4493.924657556614</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>4131.30770749044</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590673</v>
+        <v>3726.452252901474</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169984</v>
+        <v>3307.309789480785</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469637</v>
+        <v>2899.023665780438</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987277</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819527</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834753</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342126</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959688</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177149</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5735,67 +5735,67 @@
         <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874953</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>386.2829206107592</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111518</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1027.34156287986</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.389398090411</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="N20" t="n">
-        <v>3310.120381526858</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O20" t="n">
-        <v>4290.300048097164</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.798049006191</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.134188067672</v>
+        <v>965.4711828007307</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508969</v>
+        <v>792.9094712839557</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524196</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>457.2734747362157</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>280.5664206979719</v>
       </c>
       <c r="G22" t="n">
         <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5917,7 +5917,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5944,16 +5944,16 @@
         <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285906</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W22" t="n">
         <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.70947220561</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.952806786659</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,19 +6227,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6388,10 +6388,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716171</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7093,13 +7093,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477103</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309354</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324581</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831953</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066697</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7418,40 +7418,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136697</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856327</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7579,7 +7579,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
@@ -7603,16 +7603,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7658,28 +7658,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957673</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789923</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1385207805149</v>
+        <v>473.314973373139</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
         <v>102.2608402707796</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>479.9987875054297</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909311</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209009787</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>940.0056426249949</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>49.7319563997981</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859683205</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.0111327346195</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.73195639979843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49.73195639979684</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>184.7831561774897</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.01113273462</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.67467827192444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0349065174846</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.146865729424121</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>736063.1750427538</v>
+        <v>739950.8811034287</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>736063.1750427538</v>
+        <v>741051.7758658207</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>736788.2969555007</v>
+        <v>741051.7758658207</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708246.6663007222</v>
+        <v>708246.6663007224</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708246.6663007222</v>
+        <v>708246.6663007225</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708246.666300722</v>
+        <v>708246.6663007224</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708246.666300722</v>
+        <v>708246.6663007222</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738135.4849448455</v>
+        <v>738135.4849448458</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>214458.9279561634</v>
       </c>
       <c r="C2" t="n">
-        <v>214458.9279561635</v>
+        <v>214458.9279561634</v>
       </c>
       <c r="D2" t="n">
         <v>214458.9279561634</v>
@@ -26347,10 +26347,10 @@
         <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="O2" t="n">
-        <v>210743.0336549408</v>
+        <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
         <v>210743.033654941</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739069</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784534</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228853</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932127</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="G4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="H4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814188</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168589.547301231</v>
+        <v>-204142.8480287664</v>
       </c>
       <c r="C6" t="n">
-        <v>-26398.24664152099</v>
+        <v>-7851.441211521087</v>
       </c>
       <c r="D6" t="n">
-        <v>-32163.61995752105</v>
+        <v>9489.103162385785</v>
       </c>
       <c r="E6" t="n">
-        <v>-121672.1630011327</v>
+        <v>-59684.50301401615</v>
       </c>
       <c r="F6" t="n">
-        <v>102127.1307508952</v>
+        <v>102050.5721960984</v>
       </c>
       <c r="G6" t="n">
-        <v>102127.1307508952</v>
+        <v>102050.5721960984</v>
       </c>
       <c r="H6" t="n">
-        <v>102127.1307508952</v>
+        <v>102050.5721960984</v>
       </c>
       <c r="I6" t="n">
-        <v>86976.00066610624</v>
+        <v>86952.77632672378</v>
       </c>
       <c r="J6" t="n">
-        <v>-5673.749046044424</v>
+        <v>-55290.33752604995</v>
       </c>
       <c r="K6" t="n">
-        <v>105340.7162989458</v>
+        <v>91503.4833917178</v>
       </c>
       <c r="L6" t="n">
-        <v>96393.10521043628</v>
+        <v>105317.4919595631</v>
       </c>
       <c r="M6" t="n">
-        <v>-81450.27031152225</v>
+        <v>-29672.45265344035</v>
       </c>
       <c r="N6" t="n">
-        <v>105340.7162989457</v>
+        <v>105317.4919595632</v>
       </c>
       <c r="O6" t="n">
-        <v>105340.7162989456</v>
+        <v>105317.4919595632</v>
       </c>
       <c r="P6" t="n">
-        <v>105340.7162989458</v>
+        <v>105317.4919595632</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052337</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052337</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052337</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>178.0663665268309</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>113.7278999628231</v>
-      </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>19.36137284804974</v>
       </c>
       <c r="H4" t="n">
-        <v>100.0683668915045</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>329.2456520677162</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>230.0306701181816</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,22 +27777,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>376.5286747343969</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>183.2595847868384</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>84.50999350546138</v>
+        <v>216.2362286424006</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>479.9987875054297</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854907</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773336</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909311</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209009787</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>940.0056426249949</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36525,10 +36525,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.434224008042</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908054</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,19 +37470,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
